--- a/操作说明/scrapy命令表.xlsx
+++ b/操作说明/scrapy命令表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy 抓取套路" sheetId="3" r:id="rId1"/>
-    <sheet name="scrapy总结代码表" sheetId="1" r:id="rId2"/>
-    <sheet name="scrapy 半成品" sheetId="2" r:id="rId3"/>
-    <sheet name="实习总结步骤" sheetId="4" r:id="rId4"/>
+    <sheet name="有用文档" sheetId="5" r:id="rId2"/>
+    <sheet name="scrapy总结代码表" sheetId="1" r:id="rId3"/>
+    <sheet name="scrapy 半成品" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>序号</t>
   </si>
@@ -160,6 +160,30 @@
     <t>对语言进行记录</t>
   </si>
   <si>
+    <t>序列</t>
+  </si>
+  <si>
+    <t>程序或库名或作用</t>
+  </si>
+  <si>
+    <t>说明文档1</t>
+  </si>
+  <si>
+    <t>说明文档2 ，可以自行在百度搜索</t>
+  </si>
+  <si>
+    <t>scrapy header</t>
+  </si>
+  <si>
+    <t>对自己浏览器的身份进行模拟</t>
+  </si>
+  <si>
+    <t>https://dashidan.com/article/html/faq/18.html</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/mouday/article/details/80776030</t>
+  </si>
+  <si>
     <t>准备</t>
   </si>
   <si>
@@ -215,12 +239,6 @@
   </si>
   <si>
     <t>新华</t>
-  </si>
-  <si>
-    <t>步骤序号</t>
-  </si>
-  <si>
-    <t>操作软件</t>
   </si>
 </sst>
 </file>
@@ -229,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,7 +261,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,47 +358,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,77 +398,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,19 +425,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,163 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,11 +643,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,36 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -687,27 +716,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,141 +734,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1172,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="4"/>
@@ -1352,10 +1367,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.1" customWidth="1"/>
+    <col min="3" max="3" width="27.4" customWidth="1"/>
+    <col min="4" max="4" width="23.55" customWidth="1"/>
+    <col min="5" max="5" width="42.65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://dashidan.com/article/html/faq/18.html" tooltip="https://dashidan.com/article/html/faq/18.html"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://blog.csdn.net/mouday/article/details/80776030" tooltip="https://blog.csdn.net/mouday/article/details/80776030"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1369,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1380,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.7" spans="1:3">
@@ -1391,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1402,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1413,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1424,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1456,12 +1532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1473,13 +1549,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1487,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1498,15 +1574,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1514,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1525,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1536,41 +1612,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/操作说明/scrapy命令表.xlsx
+++ b/操作说明/scrapy命令表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy 抓取套路" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>序号</t>
   </si>
@@ -184,6 +184,24 @@
     <t>https://blog.csdn.net/mouday/article/details/80776030</t>
   </si>
   <si>
+    <t>javascript动态网页抓取</t>
+  </si>
+  <si>
+    <t>抽出数据库中的数据</t>
+  </si>
+  <si>
+    <t>找到真实储存地址，用header进入</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/518894-lu/p/9067208.html</t>
+  </si>
+  <si>
+    <t>splash 作为补充手段</t>
+  </si>
+  <si>
+    <t>大部分时采用方法一便已足够稳定</t>
+  </si>
+  <si>
     <t>准备</t>
   </si>
   <si>
@@ -246,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -260,15 +278,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,6 +310,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,6 +362,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -298,29 +371,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,46 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -381,24 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,31 +443,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,151 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,26 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,20 +669,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,17 +717,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,145 +740,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,17 +1385,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.1" customWidth="1"/>
+    <col min="2" max="2" width="21.3" customWidth="1"/>
     <col min="3" max="3" width="27.4" customWidth="1"/>
-    <col min="4" max="4" width="23.55" customWidth="1"/>
+    <col min="4" max="4" width="41.2" customWidth="1"/>
     <col min="5" max="5" width="42.65" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1400,7 +1418,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1413,12 +1431,41 @@
       </c>
       <c r="E2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://dashidan.com/article/html/faq/18.html" tooltip="https://dashidan.com/article/html/faq/18.html"/>
     <hyperlink ref="E2" r:id="rId2" display="https://blog.csdn.net/mouday/article/details/80776030" tooltip="https://blog.csdn.net/mouday/article/details/80776030"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://www.cnblogs.com/518894-lu/p/9067208.html" tooltip="https://www.cnblogs.com/518894-lu/p/9067208.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1445,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1456,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="14.7" spans="1:3">
@@ -1467,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1478,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1489,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1500,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1537,7 +1584,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1549,13 +1596,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1563,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1574,15 +1621,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1590,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1601,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1612,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/操作说明/scrapy命令表.xlsx
+++ b/操作说明/scrapy命令表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy 抓取套路" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>序号</t>
   </si>
@@ -232,6 +232,18 @@
     <t>scrapy crawl 中国平安 -o output\中国平安.csv</t>
   </si>
   <si>
+    <t>太保人寿</t>
+  </si>
+  <si>
+    <t>scrapy crawl 太保人寿 -o output\太保人寿.csv</t>
+  </si>
+  <si>
+    <t>泰康人寿</t>
+  </si>
+  <si>
+    <t>scrapy crawl 泰康人寿 -o output\泰康人寿.csv</t>
+  </si>
+  <si>
     <t>example步骤</t>
   </si>
   <si>
@@ -264,9 +276,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -278,145 +290,145 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,17 +649,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,7 +688,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,11 +710,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,20 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +764,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,7 +1399,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1477,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1553,9 +1565,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1563,9 +1581,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1596,13 +1620,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1610,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1621,15 +1645,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1640,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1648,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1659,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
